--- a/biology/Zoologie/Cenotextricella_simoni/Cenotextricella_simoni.xlsx
+++ b/biology/Zoologie/Cenotextricella_simoni/Cenotextricella_simoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cenotextricella
 Cenotextricella simoni, unique représentant du genre Cenotextricella, est une espèce fossile d'araignées aranéomorphes de la famille des Anapidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre du Quesnoy à Chevrières dans le département de l'Oise dans les Hauts-de-France en France. Elle date du Paléogène[1], Éocène[2], Yprésien[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre du Quesnoy à Chevrières dans le département de l'Oise dans les Hauts-de-France en France. Elle date du Paléogène, Éocène, Yprésien.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,08 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,08 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eugène Simon[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eugène Simon.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Penney, Dierick, Cnudde, Masschaele, Vlassenbroeck, Van Hoorebeke &amp; Jacobs, 2007 : First fossil Micropholcommatidae (Araneae), imaged in Eocene Paris amber using X-Ray Computed Tomography. Zootaxa, no 1623, p. 47–53.</t>
         </is>
